--- a/Data/LoginData/data.xlsx
+++ b/Data/LoginData/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\hkt\salesforce transfer data\new\salesforce_web_test_me\Data\LoginData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github\salesforce_web_test_me\Data\LoginData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22EB580-4CB3-4835-AF1D-EED137694079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CE4DB6-EFBF-4B28-A6D8-84BB8B183EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="4335" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="465" windowWidth="21660" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -69,17 +69,21 @@
   </si>
   <si>
     <t>csl UATB Testing 2</t>
+  </si>
+  <si>
+    <t>85251187287</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -88,13 +92,28 @@
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -130,6 +149,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -410,10 +432,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
@@ -424,7 +446,7 @@
     <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -457,8 +479,8 @@
       <c r="C2" s="1">
         <v>85254105130</v>
       </c>
-      <c r="D2" s="1">
-        <v>85295807349</v>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -471,6 +493,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data/LoginData/data.xlsx
+++ b/Data/LoginData/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github\salesforce_web_test_me\Data\LoginData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CE4DB6-EFBF-4B28-A6D8-84BB8B183EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38262FBA-9409-42C4-982D-A7D997811407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="465" windowWidth="21660" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="7530" windowWidth="21660" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -59,19 +59,25 @@
     <t>whatsapp_contact_no</t>
   </si>
   <si>
+    <t>whatsapp_alt_contact</t>
+  </si>
+  <si>
+    <t>csl UATB Testing 2</t>
+  </si>
+  <si>
+    <t>85251187287</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>85254105130</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>csl UATB Testing 2 (54105130)</t>
-  </si>
-  <si>
-    <t>+852 5410 5130</t>
-  </si>
-  <si>
-    <t>whatsapp_alt_contact</t>
-  </si>
-  <si>
-    <t>csl UATB Testing 2</t>
-  </si>
-  <si>
-    <t>85251187287</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>54105130</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -431,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -466,7 +472,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -476,20 +482,20 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>85254105130</v>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
